--- a/biology/Médecine/William_Hewson/William_Hewson.xlsx
+++ b/biology/Médecine/William_Hewson/William_Hewson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Hewson (14 novembre 1739-1er mai 1774) est un chirurgien, anatomiste et physiologiste britannique, parfois appelé le père de l'hématologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît le 14 novembre 1739 à Hexham, dans le comté de Northumberland. Il étudie à partir de 1753 à Newcastle-upon-Tyne avec Richard Lambert, fondateur de la Newcastle Infirmary qui devient plus tard la Royal Victoria Infirmary. À partir de l'hiver 1761-1762, il travaille avec William Hunter, d'abord comme étudiant puis comme assistant.
 Sa découverte majeure est la découverte de la fibrine, une protéine clé dans le processus de la coagulation sanguine. Il contribue aussi à la compréhension du système lymphatique en montrant l'existence de vaisseaux lymphatiques chez les animaux et en expliquant leur fonction, travail qui lui vaut la médaille Copley en 1769. Il prouve la forme plate des érythrocytes plutôt que sphérique, contrairement à ce que supposait Antoni van Leeuwenhoek. En 1773, il produit des preuves de l'existence d'une membrane cellulaire pour les érythrocytes bien que ce travail soit largement ignoré à l'époque.
